--- a/Profit Amount/purchase_data.xlsx
+++ b/Profit Amount/purchase_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Profit Amount\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199160AF-0535-492F-95DD-EF3D017828FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C0426B-4FAB-45E1-95C7-55CDC0D7B6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,12 +76,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="E349" sqref="E349"/>
+      <selection activeCell="D353" sqref="D353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3245,6 +3246,14 @@
         <v>4058.97</v>
       </c>
     </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>7079401</v>
+      </c>
+      <c r="B353" s="3">
+        <v>87758.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
